--- a/Final Demand/SwFD/SwFD_Max.xlsx
+++ b/Final Demand/SwFD/SwFD_Max.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="10">
   <si>
     <t>FD</t>
   </si>
@@ -502,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>39907832.94611022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>537150053.1280496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>99225389.50680533</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9853739746.770964</v>
+        <v>0.005893491434229414</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -608,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8230559852.534796</v>
+        <v>348785.4783381862</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -658,7 +679,199 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2547311710.546052</v>
+        <v>61550.37918510054</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16613286454.76825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>35118707719.44646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8043339726.510552</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14714446105.5603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>36145438922.78918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8013545324.900869</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10899983760.07967</v>
+        <v>0.1078960453866131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -704,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>10086346117.61538</v>
+        <v>814079.8233508468</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -754,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2991052739.19588</v>
+        <v>143661.1572856578</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12085392036.6457</v>
+        <v>1.455113546688085</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -800,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>12146447330.41356</v>
+        <v>1770591.209493165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -850,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3486312042.772178</v>
+        <v>312457.4339427827</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13068222664.98049</v>
+        <v>15.32194713751472</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>14383094707.20343</v>
+        <v>3650731.801267644</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -946,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3990217924.177524</v>
+        <v>644248.490897567</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14208932290.48285</v>
+        <v>131.4993194060578</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -992,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>16762102157.5463</v>
+        <v>7227515.72917072</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4536788282.300383</v>
+        <v>1275458.563242087</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14544784395.84717</v>
+        <v>950.4050304081966</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>19251307512.26368</v>
+        <v>13851248.5927677</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1138,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5013376716.081838</v>
+        <v>2444443.58751794</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14193651899.78347</v>
+        <v>5933.391531738838</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>21834437633.85898</v>
+        <v>25766636.13670553</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5430208486.343213</v>
+        <v>4547712.701614961</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14849856309.29033</v>
+        <v>32648.29408692861</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>24530657018.82121</v>
+        <v>46470602.23458761</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1330,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5978923508.275217</v>
+        <v>8204322.100217932</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15907005711.51422</v>
+        <v>160932.3246330396</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1376,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27418517347.91138</v>
+        <v>81081453.68798828</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1426,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6606006963.982674</v>
+        <v>14326373.19669572</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17174073713.79659</v>
+        <v>720154.8129602371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1472,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30660688415.15787</v>
+        <v>136702227.8701064</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1522,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7318940132.966043</v>
+        <v>24203939.76675293</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>132537821.9450148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1568,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>798063616.9167964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1618,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>155561180.5870507</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18410166395.98949</v>
+        <v>2957803.255348046</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1664,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34523587791.9889</v>
+        <v>222759711.9476651</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1714,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8137971889.643933</v>
+        <v>39639182.20867893</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18080415368.12482</v>
+        <v>11250573.75260081</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1760,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39384650555.35313</v>
+        <v>351292124.9191501</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1810,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8959167491.847429</v>
+        <v>63242791.67719782</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16604367136.4346</v>
+        <v>39907832.94611022</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1856,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>45720195288.09181</v>
+        <v>537150053.1280496</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1906,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>9913199438.548153</v>
+        <v>99225389.50680533</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15484424387.80991</v>
+        <v>132537821.9450148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>54069606224.30511</v>
+        <v>798063616.9167964</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2002,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>11262186814.69939</v>
+        <v>155561180.5870507</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14891921884.43012</v>
+        <v>411242231.6416994</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2048,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>64976716268.06593</v>
+        <v>1154505968.150203</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2098,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>13121137328.5823</v>
+        <v>249429928.6141462</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15724196065.48137</v>
+        <v>1172880375.1231</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2144,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>78915342603.64827</v>
+        <v>1629259477.875763</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2194,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>15673369826.22018</v>
+        <v>417836420.1290085</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>19015386872.34246</v>
+        <v>2930816908.598066</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2240,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>96210318679.92288</v>
+        <v>2246591887.163182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2290,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>19091112295.34471</v>
+        <v>722103715.0298892</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>27431784932.11649</v>
+        <v>5795190332.12794</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2336,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>116965857169.3422</v>
+        <v>3031010643.178633</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2386,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>23689009721.68771</v>
+        <v>1178794268.052275</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>41731068329.73683</v>
+        <v>8096244504.250406</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2432,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>141009627522.4276</v>
+        <v>4005556289.022578</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2482,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>29520837285.69328</v>
+        <v>1606445597.227885</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>58508349303.96714</v>
+        <v>8703947071.033665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2528,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>167856121144.0065</v>
+        <v>5189599813.522243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2578,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>36122596137.61842</v>
+        <v>1882916961.912894</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>411242231.6416994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2624,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1154505968.150203</v>
+        <v>0.9776432533727456</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2674,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>249429928.6141462</v>
+        <v>0.1725252800069551</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>81559656105.28789</v>
+        <v>9077877563.844551</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2720,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>196690429627.703</v>
+        <v>6596370888.407817</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2770,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>43772259828.35213</v>
+        <v>2172718513.544892</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>115523412600.8641</v>
+        <v>9853739746.770964</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2816,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>226375462025.1021</v>
+        <v>8230559852.534796</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2866,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>52784545679.03561</v>
+        <v>2547311710.546052</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>138590495933.0979</v>
+        <v>10899983760.07967</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2912,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>255490086831.7694</v>
+        <v>10086346117.61538</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2962,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>60485429904.05516</v>
+        <v>2991052739.195879</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>140678985638.3677</v>
+        <v>12085392036.6457</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3008,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>282407970154.2104</v>
+        <v>12146447330.41356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3058,7 +3271,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>65467699019.71199</v>
+        <v>3486312042.772178</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>138837990079.2527</v>
+        <v>13068222664.98049</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3104,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>305422672829.6483</v>
+        <v>14383094707.20343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3154,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>69324562076.783</v>
+        <v>3990217924.177524</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>135550617405.8564</v>
+        <v>14208932290.48285</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3200,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>322913196164.481</v>
+        <v>16762102157.5463</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3250,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>72045861387.84671</v>
+        <v>4536788282.300383</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>130233677764.1534</v>
+        <v>14544784395.84717</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3296,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>333529325640.618</v>
+        <v>19251307512.26368</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3346,7 +3559,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73328524929.98232</v>
+        <v>5013376716.081838</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>125411349440.931</v>
+        <v>14193651899.78347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3392,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>336364036243.6301</v>
+        <v>21834437633.85898</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3442,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73292953719.43686</v>
+        <v>5430208486.343213</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>120849357362.4083</v>
+        <v>14849856309.29033</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3488,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>331076834131.4758</v>
+        <v>24530657018.82121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3538,7 +3751,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>71853030043.86137</v>
+        <v>5978923508.275218</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>109861335707.9627</v>
+        <v>15907005711.51422</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3584,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>317940300656.8232</v>
+        <v>27418517347.91138</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3634,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>68313926959.2784</v>
+        <v>6606006963.982674</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1172880375.1231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3680,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1629259477.875763</v>
+        <v>59.86798155737787</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3730,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>417836420.1290085</v>
+        <v>10.56493792189021</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>85043655787.55942</v>
+        <v>17174073713.79659</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>297800872401.2225</v>
+        <v>30660688415.15787</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3826,7 +4039,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>62002390217.1341</v>
+        <v>7318940132.966043</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>46490761062.89436</v>
+        <v>18410166395.98949</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3872,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>271967731677.3062</v>
+        <v>34523587791.9889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3922,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>53159945708.21223</v>
+        <v>8137971889.643933</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>19773239327.7792</v>
+        <v>18080415368.12482</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3968,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>242061035256.6712</v>
+        <v>39384650555.35313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4018,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>44913679872.56451</v>
+        <v>8959167491.847429</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15802740611.47123</v>
+        <v>16604367136.4346</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4064,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>209854131424.8135</v>
+        <v>45720195288.09181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4114,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>38788942084.08481</v>
+        <v>9913199438.548151</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14352841845.66293</v>
+        <v>15484424387.80991</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4160,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>177132173268.8716</v>
+        <v>54069606224.30511</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4210,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>32853379017.22748</v>
+        <v>11262186814.69939</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10709792607.77882</v>
+        <v>14891921884.43012</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4256,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>145569801810.6351</v>
+        <v>64976716268.06593</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4306,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>26878765511.23783</v>
+        <v>13121137328.5823</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4926276850.282043</v>
+        <v>15724196065.48137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4352,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>116617869821.1267</v>
+        <v>78915342603.64827</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4402,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>21126988180.55698</v>
+        <v>15673369826.22018</v>
       </c>
     </row>
   </sheetData>
@@ -4438,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>926688925.1247468</v>
+        <v>19015386872.34246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4448,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>91393962398.57199</v>
+        <v>96210318679.92288</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4498,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>16231311741.75533</v>
+        <v>19091112295.34471</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>697793152.9071316</v>
+        <v>27431784932.11649</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4544,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>70590353831.74466</v>
+        <v>116965857169.3422</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4594,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>12534653836.97077</v>
+        <v>23689009721.68771</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1708720472.470527</v>
+        <v>41731068329.73683</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4640,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>54429555309.94657</v>
+        <v>141009627522.4276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4690,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>9795073473.206253</v>
+        <v>29520837285.69328</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2930816908.598066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4736,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2246591887.163182</v>
+        <v>659.3857787441426</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4786,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>722103715.0298891</v>
+        <v>116.3621962489664</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3665915691.762088</v>
+        <v>58508349303.96714</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4832,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>42694895902.86983</v>
+        <v>167856121144.0065</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4882,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7941717360.375432</v>
+        <v>36122596137.61842</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6722073197.714265</v>
+        <v>81559656105.28789</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4928,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34838534014.19447</v>
+        <v>196690429627.703</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4978,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6894873612.708454</v>
+        <v>43772259828.35213</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10821205602.25101</v>
+        <v>115523412600.8641</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5024,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30136149737.10649</v>
+        <v>226375462025.1021</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5074,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6520500249.281977</v>
+        <v>52784545679.03561</v>
       </c>
     </row>
   </sheetData>
@@ -5110,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15420489339.18075</v>
+        <v>138590495933.0979</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5120,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27838035731.94752</v>
+        <v>255490086831.7694</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5170,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6625982245.285333</v>
+        <v>60485429904.05517</v>
       </c>
     </row>
   </sheetData>
@@ -5206,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>19682382209.26235</v>
+        <v>140678985638.3677</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5216,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27273581115.65331</v>
+        <v>282407970154.2104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5266,7 +5479,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6999916259.347054</v>
+        <v>65467699019.71199</v>
       </c>
     </row>
   </sheetData>
@@ -5302,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>23246570533.22088</v>
+        <v>138837990079.2527</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5312,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27894628793.20261</v>
+        <v>305422672829.6483</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5362,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7505533833.210625</v>
+        <v>69324562076.783</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>24089504163.83949</v>
+        <v>135550617405.8564</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5408,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>29272676731.54919</v>
+        <v>322913196164.481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5458,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7842378055.798037</v>
+        <v>72045861387.84671</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18268761835.35025</v>
+        <v>130233677764.1534</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5504,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31076994280.56568</v>
+        <v>333529325640.618</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5554,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7514037887.426325</v>
+        <v>73328524929.98232</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8224403800.970433</v>
+        <v>125411349440.931</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5600,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33053162527.02301</v>
+        <v>336364036243.6301</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5650,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6746733678.732801</v>
+        <v>73292953719.43686</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2259591021.819898</v>
+        <v>120849357362.4083</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5696,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35006947990.99156</v>
+        <v>331076834131.4758</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5746,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6428762373.38373</v>
+        <v>71853030043.86137</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5795190332.12794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5792,7 +6005,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3031010643.178633</v>
+        <v>3677.700040906805</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5842,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1178794268.052275</v>
+        <v>649.0058895717892</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2186399743.117391</v>
+        <v>109861335707.9627</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5888,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>36790230983.95595</v>
+        <v>317940300656.8232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5938,7 +6151,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6735327007.841871</v>
+        <v>68313926959.2784</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5051077487.292297</v>
+        <v>85043655787.55942</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5984,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38286920995.45582</v>
+        <v>297800872401.2225</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6034,7 +6247,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7317746301.707689</v>
+        <v>62002390217.1341</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9302090512.222898</v>
+        <v>46490761062.89436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6080,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39401430115.28928</v>
+        <v>271967731677.3062</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6130,7 +6343,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7986759162.226143</v>
+        <v>53159945708.21223</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10752837648.52494</v>
+        <v>19773239327.7792</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6176,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40054177408.34399</v>
+        <v>242061035256.6712</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6226,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8263143987.256289</v>
+        <v>44913679872.56451</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +6475,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7350764610.444776</v>
+        <v>15802740611.47123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6272,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40186518580.27051</v>
+        <v>209854131424.8135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6322,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7908490196.371667</v>
+        <v>38788942084.08481</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3330389190.602893</v>
+        <v>14352841845.66293</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6368,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39773602079.01247</v>
+        <v>177132173268.8716</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6418,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7388914198.520169</v>
+        <v>32853379017.22748</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2394657403.547632</v>
+        <v>10709792607.77882</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6464,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38840132565.73837</v>
+        <v>145569801810.6351</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6514,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7120214085.851279</v>
+        <v>26878765511.23783</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5199880025.461836</v>
+        <v>4926276850.282044</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6560,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>37471962019.28963</v>
+        <v>116617869821.1267</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6610,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7190463627.14818</v>
+        <v>21126988180.55697</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10073532888.1018</v>
+        <v>926688925.1247469</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6656,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35816513076.88664</v>
+        <v>91393962398.57199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6706,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7439842563.226603</v>
+        <v>16231311741.75533</v>
       </c>
     </row>
   </sheetData>
@@ -6742,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13403238791.751</v>
+        <v>697793152.9071316</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6752,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34067850615.20171</v>
+        <v>70590353831.74466</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6802,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7501222392.615772</v>
+        <v>12534653836.97077</v>
       </c>
     </row>
   </sheetData>
@@ -6838,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8096244504.250406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6848,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4005556289.022578</v>
+        <v>14606.47453347831</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6898,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1606445597.227886</v>
+        <v>2577.613152966762</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +7147,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13080332203.93928</v>
+        <v>1708720472.470527</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6944,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>32437494212.35824</v>
+        <v>54429555309.94657</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6994,7 +7207,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7177633929.41595</v>
+        <v>9795073473.206253</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11957613094.20423</v>
+        <v>3665915691.762088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7040,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31117962415.6078</v>
+        <v>42694895902.86983</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7090,7 +7303,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6820028809.299886</v>
+        <v>7941717360.375432</v>
       </c>
     </row>
   </sheetData>
@@ -7126,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12448787855.12318</v>
+        <v>6722073197.714265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7136,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30249630608.72928</v>
+        <v>34838534014.19447</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7186,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6721368757.992057</v>
+        <v>6894873612.708454</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14410462124.81054</v>
+        <v>10821205602.25101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7232,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>29900546065.81041</v>
+        <v>30136149737.10649</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7282,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6877729411.102355</v>
+        <v>6520500249.281978</v>
       </c>
     </row>
   </sheetData>
@@ -7318,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16018351138.04405</v>
+        <v>15420489339.18075</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7328,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30063644058.47567</v>
+        <v>27838035731.94752</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7378,7 +7591,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7085165744.611712</v>
+        <v>6625982245.285333</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16767832254.38401</v>
+        <v>19682382209.26235</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7424,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30669226710.65764</v>
+        <v>27273581115.65331</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7474,7 +7687,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7275308951.060683</v>
+        <v>6999916259.347054</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17094151152.80722</v>
+        <v>23246570533.22088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7520,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31606113324.19513</v>
+        <v>27894628793.20261</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7570,7 +7783,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7476899538.241772</v>
+        <v>7505533833.210625</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17339218096.1079</v>
+        <v>24089504163.83949</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7616,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>32744238175.24496</v>
+        <v>29272676731.54919</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7666,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7704974760.558486</v>
+        <v>7842378055.798037</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7915,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17376229182.73361</v>
+        <v>18268761835.35025</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7712,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33953754174.22008</v>
+        <v>31076994280.56568</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7762,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7922531103.336037</v>
+        <v>7514037887.426325</v>
       </c>
     </row>
   </sheetData>
@@ -7798,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16613286454.76825</v>
+        <v>8224403800.970433</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7808,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35118707719.44646</v>
+        <v>33053162527.02301</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7858,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8043339726.510552</v>
+        <v>6746733678.732801</v>
       </c>
     </row>
   </sheetData>
@@ -7894,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8703947071.033665</v>
+        <v>4.726407131084092E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7904,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5189599813.522243</v>
+        <v>47771.9023477989</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7954,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1882916961.912894</v>
+        <v>8430.335708960258</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14714446105.5603</v>
+        <v>2259591021.819898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8000,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>36145438922.78918</v>
+        <v>35006947990.99156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8050,7 +8263,871 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8013545324.900869</v>
+        <v>6428762373.38373</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2186399743.117391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>36790230983.95595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6735327007.841871</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5051077487.292297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38286920995.45582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7317746301.707688</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9302090512.222898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39401430115.28928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7986759162.226144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10752837648.52494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40054177408.34399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8263143987.256288</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7350764610.444776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40186518580.27051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7908490196.371667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3330389190.602893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39773602079.01247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7388914198.52017</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2394657403.547632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38840132565.73837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7120214085.851279</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5199880025.461836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>37471962019.28963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7190463627.14818</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10073532888.1018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>35816513076.88664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7439842563.226603</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9077877563.844551</v>
+        <v>0.0002181041469640043</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8096,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6596370888.407817</v>
+        <v>136423.085389642</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8146,7 +9223,967 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2172718513.544891</v>
+        <v>24074.66215181769</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13403238791.751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>34067850615.20171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7501222392.615772</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13080332203.93928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32437494212.35824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7177633929.41595</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>11957613094.20423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31117962415.6078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6820028809.299886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12448787855.12318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30249630608.72928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6721368757.992057</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14410462124.81054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>29900546065.81041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6877729411.102355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16018351138.04405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30063644058.47567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7085165744.611712</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16767832254.38401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30669226710.65764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7275308951.060683</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17094151152.80722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31606113324.19513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7476899538.241772</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17339218096.1079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32744238175.24496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7704974760.558486</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17376229182.73361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>33953754174.22008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7922531103.336037</v>
       </c>
     </row>
   </sheetData>

--- a/Final Demand/SwFD/SwFD_Max.xlsx
+++ b/Final Demand/SwFD/SwFD_Max.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.005893491434229414</v>
+        <v>5.893491434229417E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>348785.4783381862</v>
+        <v>0.3487854783381862</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>61550.37918510054</v>
+        <v>0.06155037918510056</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16613286454.76825</v>
+        <v>16613.28645476835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35118707719.44646</v>
+        <v>35118.70771944648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8043339726.510552</v>
+        <v>8043.339726510569</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14714446105.5603</v>
+        <v>14714.44610556032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36145438922.78918</v>
+        <v>36145.4389227892</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8013545324.900869</v>
+        <v>8013.545324900875</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1078960453866131</v>
+        <v>1.078960453866131E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>814079.8233508468</v>
+        <v>0.8140798233508468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>143661.1572856578</v>
+        <v>0.1436611572856578</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.455113546688085</v>
+        <v>1.455113546688086E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1770591.209493165</v>
+        <v>1.770591209493165</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>312457.4339427827</v>
+        <v>0.3124574339427827</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.32194713751472</v>
+        <v>1.532194713751473E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3650731.801267644</v>
+        <v>3.650731801267645</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>644248.490897567</v>
+        <v>0.6442484908975671</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131.4993194060578</v>
+        <v>0.0001314993194060579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7227515.72917072</v>
+        <v>7.227515729170721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1275458.563242087</v>
+        <v>1.275458563242088</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>950.4050304081966</v>
+        <v>0.0009504050304081971</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13851248.5927677</v>
+        <v>13.8512485927677</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2444443.58751794</v>
+        <v>2.444443587517941</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5933.391531738838</v>
+        <v>0.005933391531738841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25766636.13670553</v>
+        <v>25.76663613670554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4547712.701614961</v>
+        <v>4.547712701614961</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32648.29408692861</v>
+        <v>0.03264829408692863</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46470602.23458761</v>
+        <v>46.47060223458762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8204322.100217932</v>
+        <v>8.204322100217933</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>160932.3246330396</v>
+        <v>0.1609323246330397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81081453.68798828</v>
+        <v>81.08145368798829</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14326373.19669572</v>
+        <v>14.32637319669572</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>720154.8129602371</v>
+        <v>0.7201548129602373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136702227.8701064</v>
+        <v>136.7022278701064</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24203939.76675293</v>
+        <v>24.20393976675293</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2957803.255348046</v>
+        <v>2.957803255348046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>222759711.9476651</v>
+        <v>222.7597119476651</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39639182.20867893</v>
+        <v>39.63918220867893</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11250573.75260081</v>
+        <v>11.25057375260081</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>351292124.9191501</v>
+        <v>351.2921249191502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63242791.67719782</v>
+        <v>63.24279167719785</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>39907832.94611022</v>
+        <v>39.90783294611022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>537150053.1280496</v>
+        <v>537.1500531280496</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>99225389.50680533</v>
+        <v>99.22538950680533</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132537821.9450148</v>
+        <v>132.5378219450148</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>798063616.9167964</v>
+        <v>798.0636169167965</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>155561180.5870507</v>
+        <v>155.5611805870507</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411242231.6416994</v>
+        <v>411.2422316416995</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1154505968.150203</v>
+        <v>1154.505968150203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>249429928.6141462</v>
+        <v>249.4299286141463</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1172880375.1231</v>
+        <v>1172.8803751231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1629259477.875763</v>
+        <v>1629.259477875763</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>417836420.1290085</v>
+        <v>417.8364201290086</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2930816908.598066</v>
+        <v>2930.816908598067</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2246591887.163182</v>
+        <v>2246.591887163183</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>722103715.0298892</v>
+        <v>722.1037150298894</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5795190332.12794</v>
+        <v>5795.19033212794</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3031010643.178633</v>
+        <v>3031.010643178633</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1178794268.052275</v>
+        <v>1178.794268052275</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8096244504.250406</v>
+        <v>8096.244504250403</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4005556289.022578</v>
+        <v>4005.556289022577</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1606445597.227885</v>
+        <v>1606.445597227885</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8703947071.033665</v>
+        <v>8703.947071033661</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5189599813.522243</v>
+        <v>5189.599813522243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1882916961.912894</v>
+        <v>1882.916961912894</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9776432533727456</v>
+        <v>9.776432533727452E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1725252800069551</v>
+        <v>1.725252800069551E-07</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9077877563.844551</v>
+        <v>9077.877563844551</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6596370888.407817</v>
+        <v>6596.370888407818</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2172718513.544892</v>
+        <v>2172.718513544892</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9853739746.770964</v>
+        <v>9853.73974677096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8230559852.534796</v>
+        <v>8230.559852534794</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2547311710.546052</v>
+        <v>2547.311710546051</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10899983760.07967</v>
+        <v>10899.98376007967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10086346117.61538</v>
+        <v>10086.34611761538</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2991052739.195879</v>
+        <v>2991.05273919588</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12085392036.6457</v>
+        <v>12085.39203664571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12146447330.41356</v>
+        <v>12146.44733041357</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3486312042.772178</v>
+        <v>3486.312042772179</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13068222664.98049</v>
+        <v>13068.2226649805</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14383094707.20343</v>
+        <v>14383.09470720343</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3990217924.177524</v>
+        <v>3990.217924177524</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14208932290.48285</v>
+        <v>14208.93229048285</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16762102157.5463</v>
+        <v>16762.1021575463</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4536788282.300383</v>
+        <v>4536.788282300383</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14544784395.84717</v>
+        <v>14544.78439584718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19251307512.26368</v>
+        <v>19251.30751226368</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5013376716.081838</v>
+        <v>5013.376716081839</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14193651899.78347</v>
+        <v>14193.65189978348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21834437633.85898</v>
+        <v>21834.43763385898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5430208486.343213</v>
+        <v>5430.208486343214</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14849856309.29033</v>
+        <v>14849.85630929034</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24530657018.82121</v>
+        <v>24530.65701882121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5978923508.275218</v>
+        <v>5978.923508275218</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15907005711.51422</v>
+        <v>15907.00571151422</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27418517347.91138</v>
+        <v>27418.51734791138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6606006963.982674</v>
+        <v>6606.006963982673</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59.86798155737787</v>
+        <v>5.986798155737783E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.56493792189021</v>
+        <v>1.056493792189021E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17174073713.79659</v>
+        <v>17174.07371379658</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30660688415.15787</v>
+        <v>30660.68841515787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7318940132.966043</v>
+        <v>7318.940132966043</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18410166395.98949</v>
+        <v>18410.16639598949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34523587791.9889</v>
+        <v>34523.58779198891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8137971889.643933</v>
+        <v>8137.971889643934</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18080415368.12482</v>
+        <v>18080.41536812482</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39384650555.35313</v>
+        <v>39384.65055535311</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8959167491.847429</v>
+        <v>8959.167491847425</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16604367136.4346</v>
+        <v>16604.3671364346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45720195288.09181</v>
+        <v>45720.19528809184</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9913199438.548151</v>
+        <v>9913.199438548156</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15484424387.80991</v>
+        <v>15484.4243878099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54069606224.30511</v>
+        <v>54069.60622430511</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11262186814.69939</v>
+        <v>11262.18681469939</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14891921884.43012</v>
+        <v>14891.92188443011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64976716268.06593</v>
+        <v>64976.71626806589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13121137328.5823</v>
+        <v>13121.13732858229</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15724196065.48137</v>
+        <v>15724.19606548136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78915342603.64827</v>
+        <v>78915.34260364833</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15673369826.22018</v>
+        <v>15673.36982622019</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19015386872.34246</v>
+        <v>19015.38687234245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>96210318679.92288</v>
+        <v>96210.31867992289</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19091112295.34471</v>
+        <v>19091.1122953447</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27431784932.11649</v>
+        <v>27431.78493211648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>116965857169.3422</v>
+        <v>116965.8571693422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23689009721.68771</v>
+        <v>23689.00972168771</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41731068329.73683</v>
+        <v>41731.06832973685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141009627522.4276</v>
+        <v>141009.6275224277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29520837285.69328</v>
+        <v>29520.83728569329</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>659.3857787441426</v>
+        <v>0.0006593857787441424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>116.3621962489664</v>
+        <v>0.0001163621962489663</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>58508349303.96714</v>
+        <v>58508.34930396715</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167856121144.0065</v>
+        <v>167856.1211440065</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36122596137.61842</v>
+        <v>36122.59613761841</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>81559656105.28789</v>
+        <v>81559.65610528784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>196690429627.703</v>
+        <v>196690.4296277031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43772259828.35213</v>
+        <v>43772.25982835214</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>115523412600.8641</v>
+        <v>115523.4126008641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>226375462025.1021</v>
+        <v>226375.462025102</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>52784545679.03561</v>
+        <v>52784.54567903559</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138590495933.0979</v>
+        <v>138590.4959330979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>255490086831.7694</v>
+        <v>255490.0868317692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60485429904.05517</v>
+        <v>60485.42990405513</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140678985638.3677</v>
+        <v>140678.9856383677</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>282407970154.2104</v>
+        <v>282407.9701542105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65467699019.71199</v>
+        <v>65467.699019712</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138837990079.2527</v>
+        <v>138837.9900792527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305422672829.6483</v>
+        <v>305422.6728296482</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69324562076.783</v>
+        <v>69324.562076783</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>135550617405.8564</v>
+        <v>135550.6174058565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>322913196164.481</v>
+        <v>322913.1961644811</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72045861387.84671</v>
+        <v>72045.86138784673</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130233677764.1534</v>
+        <v>130233.6777641534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>333529325640.618</v>
+        <v>333529.325640618</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73328524929.98232</v>
+        <v>73328.52492998233</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125411349440.931</v>
+        <v>125411.349440931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>336364036243.6301</v>
+        <v>336364.0362436303</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73292953719.43686</v>
+        <v>73292.95371943692</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>120849357362.4083</v>
+        <v>120849.3573624083</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331076834131.4758</v>
+        <v>331076.8341314757</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71853030043.86137</v>
+        <v>71853.03004386135</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3677.700040906805</v>
+        <v>0.003677700040906804</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>649.0058895717892</v>
+        <v>0.0006490058895717891</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>109861335707.9627</v>
+        <v>109861.3357079627</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317940300656.8232</v>
+        <v>317940.3006568232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68313926959.2784</v>
+        <v>68313.92695927838</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>85043655787.55942</v>
+        <v>85043.65578755939</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>297800872401.2225</v>
+        <v>297800.8724012226</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62002390217.1341</v>
+        <v>62002.39021713412</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46490761062.89436</v>
+        <v>46490.76106289436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271967731677.3062</v>
+        <v>271967.7316773063</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53159945708.21223</v>
+        <v>53159.94570821225</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19773239327.7792</v>
+        <v>19773.23932777925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>242061035256.6712</v>
+        <v>242061.0352566713</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44913679872.56451</v>
+        <v>44913.67987256453</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15802740611.47123</v>
+        <v>15802.74061147126</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>209854131424.8135</v>
+        <v>209854.1314248134</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38788942084.08481</v>
+        <v>38788.9420840848</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14352841845.66293</v>
+        <v>14352.84184566292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>177132173268.8716</v>
+        <v>177132.1732688716</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32853379017.22748</v>
+        <v>32853.37901722747</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10709792607.77882</v>
+        <v>10709.79260777879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>145569801810.6351</v>
+        <v>145569.8018106351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26878765511.23783</v>
+        <v>26878.76551123783</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4926276850.282044</v>
+        <v>4926.276850282022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>116617869821.1267</v>
+        <v>116617.8698211267</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21126988180.55697</v>
+        <v>21126.98818055697</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>926688925.1247469</v>
+        <v>926.6889251247786</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91393962398.57199</v>
+        <v>91393.96239857198</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16231311741.75533</v>
+        <v>16231.31174175533</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>697793152.9071316</v>
+        <v>697.7931529071926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>70590353831.74466</v>
+        <v>70590.35383174464</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12534653836.97077</v>
+        <v>12534.65383697077</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14606.47453347831</v>
+        <v>0.01460647453347831</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2577.613152966762</v>
+        <v>0.002577613152966762</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1708720472.470527</v>
+        <v>1708.72047247062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54429555309.94657</v>
+        <v>54429.55530994658</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9795073473.206253</v>
+        <v>9795.073473206263</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3665915691.762088</v>
+        <v>3665.915691762125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42694895902.86983</v>
+        <v>42694.8959028698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7941717360.375432</v>
+        <v>7941.717360375432</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6722073197.714265</v>
+        <v>6722.073197714178</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34838534014.19447</v>
+        <v>34838.53401419446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6894873612.708454</v>
+        <v>6894.873612708442</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10821205602.25101</v>
+        <v>10821.20560225095</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30136149737.10649</v>
+        <v>30136.14973710648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6520500249.281978</v>
+        <v>6520.500249281968</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15420489339.18075</v>
+        <v>15420.48933918079</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27838035731.94752</v>
+        <v>27838.03573194752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6625982245.285333</v>
+        <v>6625.982245285335</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19682382209.26235</v>
+        <v>19682.38220926237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27273581115.65331</v>
+        <v>27273.58111565331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6999916259.347054</v>
+        <v>6999.916259347057</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23246570533.22088</v>
+        <v>23246.57053322091</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27894628793.20261</v>
+        <v>27894.62879320261</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7505533833.210625</v>
+        <v>7505.533833210627</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24089504163.83949</v>
+        <v>24089.5041638395</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29272676731.54919</v>
+        <v>29272.67673154919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7842378055.798037</v>
+        <v>7842.378055798037</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18268761835.35025</v>
+        <v>18268.76183535024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31076994280.56568</v>
+        <v>31076.99428056567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7514037887.426325</v>
+        <v>7514.037887426322</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8224403800.970433</v>
+        <v>8224.403800970416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33053162527.02301</v>
+        <v>33053.16252702301</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6746733678.732801</v>
+        <v>6746.733678732799</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.726407131084092E-06</v>
+        <v>4.726407131084097E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47771.9023477989</v>
+        <v>0.04777190234779891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8430.335708960258</v>
+        <v>0.008430335708960259</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2259591021.819898</v>
+        <v>2259.591021819855</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35006947990.99156</v>
+        <v>35006.94799099155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6428762373.38373</v>
+        <v>6428.762373383723</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2186399743.117391</v>
+        <v>2186.399743117375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36790230983.95595</v>
+        <v>36790.23098395592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6735327007.841871</v>
+        <v>6735.327007841865</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5051077487.292297</v>
+        <v>5051.07748729228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38286920995.45582</v>
+        <v>38286.92099545578</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7317746301.707688</v>
+        <v>7317.74630170768</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9302090512.222898</v>
+        <v>9302.09051222288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39401430115.28928</v>
+        <v>39401.43011528924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7986759162.226144</v>
+        <v>7986.759162226134</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10752837648.52494</v>
+        <v>10752.83764852496</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40054177408.34399</v>
+        <v>40054.17740834397</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8263143987.256288</v>
+        <v>8263.143987256284</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7350764610.444776</v>
+        <v>7350.764610444829</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40186518580.27051</v>
+        <v>40186.51858027048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7908490196.371667</v>
+        <v>7908.490196371667</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3330389190.602893</v>
+        <v>3330.389190602929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39773602079.01247</v>
+        <v>39773.60207901242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7388914198.52017</v>
+        <v>7388.914198520166</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2394657403.547632</v>
+        <v>2394.657403547618</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38840132565.73837</v>
+        <v>38840.13256573832</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7120214085.851279</v>
+        <v>7120.21408585127</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5199880025.461836</v>
+        <v>5199.880025461795</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37471962019.28963</v>
+        <v>37471.96201928962</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7190463627.14818</v>
+        <v>7190.463627148172</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10073532888.1018</v>
+        <v>10073.53288810176</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35816513076.88664</v>
+        <v>35816.51307688664</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7439842563.226603</v>
+        <v>7439.842563226596</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002181041469640043</v>
+        <v>2.181041469640044E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136423.085389642</v>
+        <v>0.1364230853896421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24074.66215181769</v>
+        <v>0.02407466215181769</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13403238791.751</v>
+        <v>13403.23879175104</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34067850615.20171</v>
+        <v>34067.85061520172</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7501222392.615772</v>
+        <v>7501.222392615779</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13080332203.93928</v>
+        <v>13080.33220393937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32437494212.35824</v>
+        <v>32437.49421235826</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7177633929.41595</v>
+        <v>7177.633929415963</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11957613094.20423</v>
+        <v>11957.61309420425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31117962415.6078</v>
+        <v>31117.96241560782</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6820028809.299886</v>
+        <v>6820.028809299891</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12448787855.12318</v>
+        <v>12448.78785512317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30249630608.72928</v>
+        <v>30249.63060872933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6721368757.992057</v>
+        <v>6721.368757992066</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14410462124.81054</v>
+        <v>14410.46212481059</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29900546065.81041</v>
+        <v>29900.54606581046</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6877729411.102355</v>
+        <v>6877.72941110237</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16018351138.04405</v>
+        <v>16018.35113804412</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30063644058.47567</v>
+        <v>30063.64405847575</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7085165744.611712</v>
+        <v>7085.165744611733</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16767832254.38401</v>
+        <v>16767.83225438397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30669226710.65764</v>
+        <v>30669.22671065771</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7275308951.060683</v>
+        <v>7275.308951060691</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17094151152.80722</v>
+        <v>17094.15115280708</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31606113324.19513</v>
+        <v>31606.11332419519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7476899538.241772</v>
+        <v>7476.899538241769</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17339218096.1079</v>
+        <v>17339.21809610783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32744238175.24496</v>
+        <v>32744.23817524502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7704974760.558486</v>
+        <v>7704.974760558487</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17376229182.73361</v>
+        <v>17376.22918273365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33953754174.22008</v>
+        <v>33953.75417422012</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7922531103.336037</v>
+        <v>7922.531103336049</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Max.xlsx
+++ b/Final Demand/SwFD/SwFD_Max.xlsx
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3487854783381862</v>
+        <v>0.3487854949809455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06155037918510056</v>
+        <v>0.06155038212205807</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16613.28645476835</v>
+        <v>91959.02605013845</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35118.70771944648</v>
+        <v>223900.9079143188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8043.339726510569</v>
+        <v>49729.59448718275</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14714.44610556032</v>
+        <v>112940.7487338659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36145.4389227892</v>
+        <v>230668.4206559483</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8013.545324900875</v>
+        <v>53255.16396200212</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8140798233508468</v>
+        <v>0.8140799137122163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1436611572856578</v>
+        <v>0.1436611732317818</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.770591209493165</v>
+        <v>1.77059161514248</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3124574339427827</v>
+        <v>0.3124575055279559</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.650731801267645</v>
+        <v>3.650733373380695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6442484908975671</v>
+        <v>0.6442487683292819</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.227515729170721</v>
+        <v>7.227521144581901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.275458563242088</v>
+        <v>1.275459518902884</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.8512485927677</v>
+        <v>13.8512655163308</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.444443587517941</v>
+        <v>2.444446574029076</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.76663613670554</v>
+        <v>25.76668485417858</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.547712701614961</v>
+        <v>4.547721298816088</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46.47060223458762</v>
+        <v>46.4707329746627</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.204322100217933</v>
+        <v>8.20434517199589</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81.08145368798829</v>
+        <v>81.08178398592842</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.32637319669572</v>
+        <v>14.32643148456751</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136.7022278701064</v>
+        <v>136.7030198302452</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.20393976675293</v>
+        <v>24.20407952442447</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>222.7597119476651</v>
+        <v>222.7615263487725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.63918220867893</v>
+        <v>39.63950239710964</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>351.2921249191502</v>
+        <v>351.2961188067248</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63.24279167719785</v>
+        <v>63.24349648088749</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>537.1500531280496</v>
+        <v>537.1585372613789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>99.22538950680533</v>
+        <v>99.22688670680462</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132.5378219450148</v>
+        <v>132.5378219450149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>798.0636169167965</v>
+        <v>798.0810694987658</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>155.5611805870507</v>
+        <v>155.5642604544571</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1154.505968150203</v>
+        <v>1154.540825313259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>249.4299286141463</v>
+        <v>249.436079878215</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1172.8803751231</v>
+        <v>1172.880375123101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1629.259477875763</v>
+        <v>1629.327206684617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>417.8364201290086</v>
+        <v>417.8483722717475</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2930.816908598067</v>
+        <v>2930.816908598068</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2246.591887163183</v>
+        <v>2246.720114289821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>722.1037150298894</v>
+        <v>722.1263433463552</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5795.19033212794</v>
+        <v>5795.190332127949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3031.010643178633</v>
+        <v>3031.247485966979</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1178.794268052275</v>
+        <v>1178.836063838454</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8096.244504250403</v>
+        <v>8096.244504250471</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4005.556289022577</v>
+        <v>4005.983541597593</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1606.445597227885</v>
+        <v>1606.520994741131</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8703.947071033661</v>
+        <v>8703.947071034141</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5189.599813522243</v>
+        <v>5190.35330532756</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1882.916961912894</v>
+        <v>1883.049931055062</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9077.877563844551</v>
+        <v>9077.877563847735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6596.370888407818</v>
+        <v>6597.671179550405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2172.718513544892</v>
+        <v>2172.947976688055</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9853.73974677096</v>
+        <v>9853.739746790574</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8230.559852534794</v>
+        <v>8232.757475473818</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2547.311710546051</v>
+        <v>2547.699526360999</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10899.98376007967</v>
+        <v>10899.98376019301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10086.34611761538</v>
+        <v>10089.98682004963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2991.05273919588</v>
+        <v>2991.695216108636</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12085.39203664571</v>
+        <v>12085.39203726253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12146.44733041357</v>
+        <v>12152.36419965383</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3486.312042772179</v>
+        <v>3487.356196236056</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13068.2226649805</v>
+        <v>13068.22266815404</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14383.09470720343</v>
+        <v>14392.53561011033</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3990.217924177524</v>
+        <v>3991.883966219592</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14208.93229048285</v>
+        <v>14208.93230597153</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16762.1021575463</v>
+        <v>16776.90251839856</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4536.788282300383</v>
+        <v>4539.40011240704</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14544.78439584718</v>
+        <v>14544.78446776636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19251.30751226368</v>
+        <v>19274.11992788981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5013.376716081839</v>
+        <v>5017.40244447747</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14193.65189978348</v>
+        <v>14193.65221826327</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21834.43763385898</v>
+        <v>21869.03098615434</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5430.208486343214</v>
+        <v>5436.313230958449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14849.85630929034</v>
+        <v>14849.85765677005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24530.65701882121</v>
+        <v>24582.29832422761</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5978.923508275218</v>
+        <v>5988.036829537492</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15907.00571151422</v>
+        <v>15907.01116520956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27418.51734791138</v>
+        <v>27494.44926502608</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6606.006963982673</v>
+        <v>6619.407320027886</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17174.07371379658</v>
+        <v>17174.09484074197</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30660.68841515787</v>
+        <v>30770.71377152266</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7318.940132966043</v>
+        <v>7338.358719762911</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18410.16639598949</v>
+        <v>18410.24472985096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34523.58779198891</v>
+        <v>34680.76936211677</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8137.971889643934</v>
+        <v>8165.718517546531</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18080.41536812482</v>
+        <v>18080.69320697842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39384.65055535311</v>
+        <v>39606.12938049464</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8959.167491847425</v>
+        <v>8998.282861385547</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16604.3671364346</v>
+        <v>16605.30888941055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45720.19528809184</v>
+        <v>46028.12400238205</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9913.199438548156</v>
+        <v>9967.644439113037</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15484.4243878099</v>
+        <v>15487.47065684541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54069.60622430511</v>
+        <v>54492.18534435277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11262.18681469939</v>
+        <v>11337.09807492743</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14891.92188443011</v>
+        <v>14901.30735544877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64976.71626806589</v>
+        <v>65549.31179149065</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13121.13732858229</v>
+        <v>13223.22642753514</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15724.19606548136</v>
+        <v>15751.66563723071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78915.34260364833</v>
+        <v>79681.65357642854</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15673.36982622019</v>
+        <v>15811.65334899669</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19015.38687234245</v>
+        <v>19091.47140707784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>96210.31867992289</v>
+        <v>97223.5551425989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19091.1122953447</v>
+        <v>19278.37256712741</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27431.78493211648</v>
+        <v>27630.07532857142</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>116965.8571693422</v>
+        <v>118289.8840246791</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23689.00972168771</v>
+        <v>23944.69378596111</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41731.06832973685</v>
+        <v>42213.0995827044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141009.6275224277</v>
+        <v>142720.0306383072</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29520.83728569329</v>
+        <v>29876.23215777954</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0006593857787441424</v>
+        <v>0.0006593857787469002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0001163621962489663</v>
+        <v>0.000116362196249453</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>58508.34930396715</v>
+        <v>59587.0221659563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167856.1211440065</v>
+        <v>170041.1607714109</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36122.59613761841</v>
+        <v>36628.04390620491</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>81559.65610528784</v>
+        <v>83739.68615819517</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>196690.4296277031</v>
+        <v>199451.8651504051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43772.25982835214</v>
+        <v>44501.79754085134</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>115523.4126008641</v>
+        <v>119404.5718713682</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>226375.462025102</v>
+        <v>229829.2628215774</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>52784.54567903559</v>
+        <v>53825.27985618202</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138590.4959330979</v>
+        <v>144523.1611823044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>255490.0868317692</v>
+        <v>259767.0873672642</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60485.42990405513</v>
+        <v>61899.3797321262</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140678.9856383677</v>
+        <v>148388.5570643862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>282407.9701542105</v>
+        <v>287654.5827211087</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65467.699019712</v>
+        <v>67250.19087297059</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138837.9900792527</v>
+        <v>147633.8966434022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305422.6728296482</v>
+        <v>311801.8361452292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69324.562076783</v>
+        <v>71427.61973110474</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>135550.6174058565</v>
+        <v>145038.5869475644</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>322913.1961644811</v>
+        <v>330605.8074454539</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72045.86138784673</v>
+        <v>74457.59986363302</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130233.6777641534</v>
+        <v>140503.5901995475</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>333529.325640618</v>
+        <v>342736.4700331416</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73328.52492998233</v>
+        <v>76094.41649860871</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125411.349440931</v>
+        <v>136652.5498989921</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>336364.0362436303</v>
+        <v>347310.3795974777</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73292.95371943692</v>
+        <v>76473.68364323376</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>120849.3573624083</v>
+        <v>133127.0434883632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331076.8341314757</v>
+        <v>344015.5688665031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71853.03004386135</v>
+        <v>75500.52352090039</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003677700040906804</v>
+        <v>0.003677700041242221</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0006490058895717891</v>
+        <v>0.0006490058896309803</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>109861.3357079627</v>
+        <v>123093.3706779851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317940.3006568232</v>
+        <v>333160.0130672631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68313.92695927838</v>
+        <v>72469.98466890099</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>85043.65578755939</v>
+        <v>99035.34201996759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>297800.8724012226</v>
+        <v>315634.6151177001</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62002.39021713412</v>
+        <v>66704.15308834871</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46490.76106289436</v>
+        <v>60953.48729103065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271967.7316773063</v>
+        <v>292804.4201299293</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53159.94570821225</v>
+        <v>58443.97795722623</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19773.23932777925</v>
+        <v>34539.61555685441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>242061.0352566713</v>
+        <v>266359.0291096193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44913.67987256453</v>
+        <v>50842.26961062905</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15802.74061147126</v>
+        <v>31110.03367757448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>209854.1314248134</v>
+        <v>238156.5067191203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38788.9420840848</v>
+        <v>45484.28924140532</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14352.84184566292</v>
+        <v>30523.62579261748</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>177132.1732688716</v>
+        <v>210082.74702341</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32853.37901722747</v>
+        <v>40464.93992226516</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10709.79260777879</v>
+        <v>27720.63837166608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>145569.8018106351</v>
+        <v>183928.4640954841</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26878.76551123783</v>
+        <v>35538.03518232937</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4926.276850282022</v>
+        <v>22332.38248479979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>116617.8698211267</v>
+        <v>161273.2554909149</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21126.98818055697</v>
+        <v>30941.36209474706</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>926.6889251247786</v>
+        <v>17970.35487222469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91393.96239857198</v>
+        <v>143371.0238782105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16231.31174175533</v>
+        <v>27297.47501659807</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>697.7931529071926</v>
+        <v>16959.62618967669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>70590.35383174464</v>
+        <v>131050.064143013</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12534.65383697077</v>
+        <v>25010.88481755462</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01460647453347831</v>
+        <v>0.01460647454724976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.002577613152966762</v>
+        <v>0.002577613155397018</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1708.72047247062</v>
+        <v>17534.93314974573</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54429.55530994658</v>
+        <v>124657.8739206453</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9795.073473206263</v>
+        <v>23946.77424446472</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3665.915691762125</v>
+        <v>20103.60357133836</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42694.8959028698</v>
+        <v>124078.3630891726</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7941.717360375432</v>
+        <v>24129.9154517674</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6722.073197714178</v>
+        <v>25864.24657974881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34838.53401419446</v>
+        <v>128824.4956985823</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6894.873612708442</v>
+        <v>25607.53971057157</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10821.20560225095</v>
+        <v>36028.90840489383</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30136.14973710648</v>
+        <v>138176.6872131969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6520.500249281968</v>
+        <v>28387.3333179053</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15420.48933918079</v>
+        <v>51137.49848836968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27838.03573194752</v>
+        <v>151318.158079098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6625.982245285335</v>
+        <v>32385.14864338517</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19682.38220926237</v>
+        <v>70848.01594765963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27273.58111565331</v>
+        <v>167426.0377455146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6999.916259347057</v>
+        <v>37417.7731388177</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23246.57053322091</v>
+        <v>94507.73664017525</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27894.62879320261</v>
+        <v>185705.6508706468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7505.533833210627</v>
+        <v>43272.44507444735</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24089.5041638395</v>
+        <v>119309.7801522485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29272.67673154919</v>
+        <v>205384.8373451838</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7842.378055798037</v>
+        <v>49501.02530005352</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18268.76183535024</v>
+        <v>138248.2042706408</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31076.99428056567</v>
+        <v>225696.9342565985</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7514.037887426322</v>
+        <v>55189.78233679121</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8224.403800970416</v>
+        <v>146491.5416209743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33053.16252702301</v>
+        <v>245872.9095182358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6746.733678732799</v>
+        <v>59666.17493169236</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04777190234779891</v>
+        <v>0.04777190258389989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.008430335708960259</v>
+        <v>0.008430335750625139</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2259.591021819855</v>
+        <v>147433.6407805964</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35006.94799099155</v>
+        <v>265147.7473392775</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6428.762373383723</v>
+        <v>63172.29458451394</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2186.399743117375</v>
+        <v>146544.1928164235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36790.23098395592</v>
+        <v>282777.0662109315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6735.327007841865</v>
+        <v>66184.52330440751</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5051.07748729228</v>
+        <v>146449.1836400357</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38286.92099545578</v>
+        <v>298060.1849953717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7317.74630170768</v>
+        <v>68870.98769121338</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9302.09051222288</v>
+        <v>147221.1748986098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39401.43011528924</v>
+        <v>310369.5819360453</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7986.759162226134</v>
+        <v>71129.01101666399</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10752.83764852496</v>
+        <v>143084.4051712081</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40054.17740834397</v>
+        <v>319187.8653596253</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8263.143987256284</v>
+        <v>72225.53759882628</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7350.764610444829</v>
+        <v>128936.9432839169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40186.51858027048</v>
+        <v>324150.8572330697</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7908.490196371667</v>
+        <v>71529.41948444098</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3330.389190602929</v>
+        <v>106293.7096773301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39773.60207901242</v>
+        <v>325091.4363438854</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7388.914198520166</v>
+        <v>69179.48918823215</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2394.657403547618</v>
+        <v>79765.88863861933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38840.13256573832</v>
+        <v>322075.6409610831</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7120.21408585127</v>
+        <v>65699.75433206387</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5199.880025461795</v>
+        <v>58912.63403747652</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37471.96201928962</v>
+        <v>315421.2866504382</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7190.463627148172</v>
+        <v>62208.42822352244</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10073.53288810176</v>
+        <v>49174.05796255205</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35816.51307688664</v>
+        <v>305690.6452018761</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7439.842563226596</v>
+        <v>59409.19219486301</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1364230853896421</v>
+        <v>0.1364230877625402</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02407466215181769</v>
+        <v>0.02407466257056443</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13403.23879175104</v>
+        <v>45694.79562562396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34067.85061520172</v>
+        <v>293653.014862749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7501.222392615779</v>
+        <v>56898.31978385512</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13080.33220393937</v>
+        <v>42332.49431927962</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32437.49421235826</v>
+        <v>280219.8455220241</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7177.633929415963</v>
+        <v>54154.1714543948</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11957.61309420425</v>
+        <v>38013.14829443273</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31117.96241560782</v>
+        <v>266362.405023387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6820.028809299891</v>
+        <v>51228.81344207063</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12448.78785512317</v>
+        <v>34596.35524591468</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30249.63060872933</v>
+        <v>253026.6463154352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6721.368757992066</v>
+        <v>48495.80058625687</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14410.46212481059</v>
+        <v>33662.43498930217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29900.54606581046</v>
+        <v>241059.5812818307</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6877.72941110237</v>
+        <v>46280.19666292527</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16018.35113804412</v>
+        <v>35100.10873281607</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30063.64405847575</v>
+        <v>231156.2830227164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7085.165744611733</v>
+        <v>44692.2973207269</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16767.83225438397</v>
+        <v>38918.71724189883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30669.22671065771</v>
+        <v>223829.5308266916</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7275.308951060691</v>
+        <v>43823.63088518271</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17094.15115280708</v>
+        <v>45854.0097860938</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31606.11332419519</v>
+        <v>219398.7043685355</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7476.899538241769</v>
+        <v>43812.3083942095</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17339.21809610783</v>
+        <v>57001.7185267844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32744.23817524502</v>
+        <v>217992.6791320367</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7704.974760558487</v>
+        <v>44802.82059817207</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17376.22918273365</v>
+        <v>72698.9520100127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33953.75417422012</v>
+        <v>219562.4428012529</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7922.531103336049</v>
+        <v>46823.97476996107</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Max.xlsx
+++ b/Final Demand/SwFD/SwFD_Max.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.893491434229417E-09</v>
+        <v>7.758462972192038E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3487854949809455</v>
+        <v>0.3987265881876249</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06155038212205807</v>
+        <v>0.07036351642457349</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91959.02605013845</v>
+        <v>100738.3260363028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>223900.9079143188</v>
+        <v>242677.5335288661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49729.59448718275</v>
+        <v>54018.59443069629</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112940.7487338659</v>
+        <v>123631.4673155242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>230668.4206559483</v>
+        <v>250159.4728457136</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53255.16396200212</v>
+        <v>57882.61902743908</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.078960453866131E-07</v>
+        <v>1.418411405335003E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8140799137122163</v>
+        <v>0.901787976360405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1436611732317818</v>
+        <v>0.1591390704119629</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.455113546688086E-06</v>
+        <v>1.909755729057857E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.77059161514248</v>
+        <v>1.903929437954683</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3124575055279559</v>
+        <v>0.3359877600694369</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.532194713751473E-05</v>
+        <v>2.007131424608506E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.650733373380695</v>
+        <v>3.813546526514628</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6442487683292819</v>
+        <v>0.6729810289427265</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001314993194060579</v>
+        <v>0.0001718984734001441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.227521144581901</v>
+        <v>7.340797156599336</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.275459518902884</v>
+        <v>1.295453892171437</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0009504050304081971</v>
+        <v>0.001239535008604422</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.8512655163308</v>
+        <v>13.70233785925079</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.444446574029076</v>
+        <v>2.418197348332796</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.005933391531738841</v>
+        <v>0.007719310738847231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.76668485417858</v>
+        <v>24.89628382043111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.547721298816088</v>
+        <v>4.39431955185752</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03264829408692863</v>
+        <v>0.04236372076457966</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46.4707329746627</v>
+        <v>44.01348419128709</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.20434517199589</v>
+        <v>7.771792525606206</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1609323246330397</v>
+        <v>0.2082456642679454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81.08178398592842</v>
+        <v>75.55852382309691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.32643148456751</v>
+        <v>13.35699555239328</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7201548129602373</v>
+        <v>0.9291938596488826</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>136.7030198302452</v>
+        <v>125.7661937409235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.20407952442447</v>
+        <v>22.29727795175794</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.957803255348046</v>
+        <v>3.804982999039158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>222.7615263487725</v>
+        <v>202.89763883029</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.63950239710964</v>
+        <v>36.22824156471567</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.25057375260081</v>
+        <v>14.42845403455825</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>351.2961188067248</v>
+        <v>317.4915640043091</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63.24349648088749</v>
+        <v>57.63108461897933</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>39.90783294611022</v>
+        <v>51.01741565513007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>537.1585372613789</v>
+        <v>482.5392703053416</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>99.22688670680462</v>
+        <v>90.82259061687212</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132.5378219450149</v>
+        <v>168.8638030943021</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>798.0810694987658</v>
+        <v>713.5440648555278</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>155.5642604544571</v>
+        <v>144.6821856451137</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411.2422316416995</v>
+        <v>521.960744998372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1154.540825313259</v>
+        <v>1028.406041591142</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>249.436079878215</v>
+        <v>239.4790574374717</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1172.880375123101</v>
+        <v>1481.109546822739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1629.327206684617</v>
+        <v>1447.053259409512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>417.8483722717475</v>
+        <v>419.930067320545</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2930.816908598068</v>
+        <v>3668.552496868869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2246.720114289821</v>
+        <v>1990.748925907089</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>722.1263433463552</v>
+        <v>758.9255780801449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5795.190332127949</v>
+        <v>7111.489896901316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3031.247485966979</v>
+        <v>2681.075162166021</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1178.836063838454</v>
+        <v>1263.29645507062</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8096.244504250471</v>
+        <v>9458.980532984249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4005.983541597593</v>
+        <v>3538.584448990379</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1606.520994741131</v>
+        <v>1675.453916231846</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8703.947071034141</v>
+        <v>9269.605600119463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5190.35330532756</v>
+        <v>4581.105833556348</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1883.049931055062</v>
+        <v>1838.386619006877</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.776432533727452E-07</v>
+        <v>1.290468172349639E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.725252800069551E-07</v>
+        <v>2.277296774734657E-07</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9077.877563847735</v>
+        <v>8824.605243229747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6597.671179550405</v>
+        <v>5821.957780392542</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2172.947976688055</v>
+        <v>2007.916007879113</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9853.739746790574</v>
+        <v>9178.540759021627</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8232.757475473818</v>
+        <v>7268.406812657661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2547.699526360999</v>
+        <v>2302.497887876631</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10899.98376019301</v>
+        <v>9848.587390949777</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10089.98682004963</v>
+        <v>8920.662098546059</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2991.695216108636</v>
+        <v>2668.521975862025</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12085.39203726253</v>
+        <v>10509.57876828448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12152.36419965383</v>
+        <v>10771.88289363154</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3487.356196236056</v>
+        <v>3068.65148489469</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13068.22266815404</v>
+        <v>11070.08575814266</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14392.53561011033</v>
+        <v>12809.93170343576</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3991.883966219592</v>
+        <v>3490.585711641771</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14208.93230597153</v>
+        <v>12125.83007990134</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16776.90251839856</v>
+        <v>15021.82444790856</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4539.40011240704</v>
+        <v>3998.224650012117</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14544.78446776636</v>
+        <v>12684.07802631979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19274.11992788981</v>
+        <v>17401.93250930712</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5017.40244447747</v>
+        <v>4480.271269272737</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14193.65221826327</v>
+        <v>12586.64823016333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21869.03098615434</v>
+        <v>19964.8203109055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5436.313230958449</v>
+        <v>4921.720054295589</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14849.85765677005</v>
+        <v>13432.31599221058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24582.29832422761</v>
+        <v>22762.9453450469</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5988.036829537492</v>
+        <v>5509.469909698341</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15907.01116520956</v>
+        <v>14782.26102817664</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27494.44926502608</v>
+        <v>25908.11668917654</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6619.407320027886</v>
+        <v>6214.494039782806</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.986798155737783E-05</v>
+        <v>7.896685384831874E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.056493792189021E-05</v>
+        <v>1.393532714970331E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17174.09484074197</v>
+        <v>16597.47589242723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30770.71377152266</v>
+        <v>29593.51067085687</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7338.358719762911</v>
+        <v>7066.548224081036</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18410.24472985096</v>
+        <v>18790.60464779426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34680.76936211677</v>
+        <v>34111.00288911517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8165.718517546531</v>
+        <v>8107.433706004002</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18080.69320697842</v>
+        <v>19005.08193686253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39606.12938049464</v>
+        <v>39857.27846621916</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8998.282861385547</v>
+        <v>9145.313147154122</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16605.30888941055</v>
+        <v>17342.46926151569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46028.12400238205</v>
+        <v>47322.1739508352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9967.644439113037</v>
+        <v>10277.9129027341</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15487.47065684541</v>
+        <v>16012.2877749005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54492.18534435277</v>
+        <v>57054.91792779494</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11337.09807492743</v>
+        <v>11847.65801453446</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14901.30735544877</v>
+        <v>15477.54491021108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65549.31179149065</v>
+        <v>69608.34992182846</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13223.22642753514</v>
+        <v>14003.55366903893</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15751.66563723071</v>
+        <v>16566.0327222649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79681.65357642854</v>
+        <v>85466.61352102949</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15811.65334899669</v>
+        <v>16923.0138650085</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19091.47140707784</v>
+        <v>20398.03211031461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>97223.5551425989</v>
+        <v>104966.0320903362</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19278.37256712741</v>
+        <v>20789.86543996357</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27630.07532857142</v>
+        <v>30143.89249711337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118289.8840246791</v>
+        <v>128219.8976838995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23944.69378596111</v>
+        <v>25976.36215631512</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42213.0995827044</v>
+        <v>46382.39519786959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142720.0306383072</v>
+        <v>155055.6329262815</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29876.23215777954</v>
+        <v>32516.3582181267</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0006593857787469002</v>
+        <v>0.00086625634939572</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.000116362196249453</v>
+        <v>0.0001528687675404212</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59587.0221659563</v>
+        <v>65441.30982927746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170041.1607714109</v>
+        <v>184969.3866783247</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36628.04390620491</v>
+        <v>39912.91312034304</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>83739.68615819517</v>
+        <v>91964.95996338768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>199451.8651504051</v>
+        <v>217101.727255694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44501.79754085134</v>
+        <v>48530.39840053156</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119404.5718713682</v>
+        <v>130973.6720692424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>229829.2628215774</v>
+        <v>250240.2376082385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53825.27985618202</v>
+        <v>58712.67216078144</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144523.1611823044</v>
+        <v>158161.5285726735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>259767.0873672642</v>
+        <v>282858.6418858304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>61899.3797321262</v>
+        <v>67489.73409577041</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148388.5570643862</v>
+        <v>161794.6860361972</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287654.5827211087</v>
+        <v>313203.1661357888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>67250.19087297059</v>
+        <v>73248.33430249445</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147633.8966434022</v>
+        <v>160272.9046875569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>311801.8361452292</v>
+        <v>339431.2415655391</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71427.61973110474</v>
+        <v>77707.73138534657</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>145038.5869475644</v>
+        <v>156838.8585525491</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>330605.8074454539</v>
+        <v>359795.0099162184</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74457.59986363302</v>
+        <v>80919.77688321067</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140503.5901995475</v>
+        <v>151371.0939307007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>342736.4700331416</v>
+        <v>372846.2410361837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76094.41649860871</v>
+        <v>82615.40591371812</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>136652.5498989921</v>
+        <v>146685.3701791065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>347310.3795974777</v>
+        <v>377626.6160545907</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76473.68364323376</v>
+        <v>82938.36553280237</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133127.0434883632</v>
+        <v>142470.6738495498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344015.5688665031</v>
+        <v>373804.0450818976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>75500.52352090039</v>
+        <v>81795.49459250709</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003677700041242221</v>
+        <v>0.004777487359029573</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0006490058896309803</v>
+        <v>0.0008430860045346306</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123093.3706779851</v>
+        <v>131367.7064732621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>333160.0130672631</v>
+        <v>361725.0191826745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72469.98466890099</v>
+        <v>78430.23874495208</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>99035.34201996759</v>
+        <v>105159.8700014684</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>315634.6151177001</v>
+        <v>342373.4234617458</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66704.15308834871</v>
+        <v>72103.2694345889</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60953.48729103065</v>
+        <v>63740.32022312065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>292804.4201299293</v>
+        <v>317250.9688715844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>58443.97795722623</v>
+        <v>63067.72289755445</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34539.61555685441</v>
+        <v>35105.63458340235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>266359.0291096193</v>
+        <v>288213.1115691048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>50842.26961062905</v>
+        <v>54761.76340054687</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31110.03367757448</v>
+        <v>31662.91247746312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>238156.5067191203</v>
+        <v>257297.8901036029</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>45484.28924140532</v>
+        <v>48923.61140466767</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30523.62579261748</v>
+        <v>31464.46539840015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>210082.74702341</v>
+        <v>226571.6555125917</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40464.93992226516</v>
+        <v>43479.28503668483</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27720.63837166608</v>
+        <v>28925.74749011771</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>183928.4640954841</v>
+        <v>197994.0978857862</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35538.03518232937</v>
+        <v>38154.10686436751</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22332.38248479979</v>
+        <v>23439.82327696779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>161273.2554909149</v>
+        <v>173291.121712144</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30941.36209474706</v>
+        <v>33185.21099304798</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17970.35487222469</v>
+        <v>18818.51319595099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143371.0238782105</v>
+        <v>153829.4191120134</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27297.47501659807</v>
+        <v>29237.31398925183</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16959.62618967669</v>
+        <v>17735.55332036053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131050.064143013</v>
+        <v>140507.3588598915</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25010.88481755462</v>
+        <v>26766.03330498823</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01460647454724976</v>
+        <v>0.01854645999771608</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.002577613155397018</v>
+        <v>0.003272904705479309</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17534.93314974573</v>
+        <v>18445.39102317568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124657.8739206453</v>
+        <v>133695.0785768896</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23946.77424446472</v>
+        <v>25642.73705209155</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20103.60357133836</v>
+        <v>21423.2876657619</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124078.3630891726</v>
+        <v>133254.0151804538</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24129.9154517674</v>
+        <v>25895.77973980526</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25864.24657974881</v>
+        <v>27950.09394560311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>128824.4956985823</v>
+        <v>138639.1221804165</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25607.53971057157</v>
+        <v>27571.29343755882</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>36028.90840489383</v>
+        <v>39329.91883687369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>138176.6872131969</v>
+        <v>149051.2224864306</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28387.3333179053</v>
+        <v>30673.14789124496</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>51137.49848836968</v>
+        <v>56076.76411595137</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151318.158079098</v>
+        <v>163586.0170021911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32385.14864338517</v>
+        <v>35098.87221588453</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>70848.01594765963</v>
+        <v>77741.66035717889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167426.0377455146</v>
+        <v>181334.5694465708</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>37417.7731388177</v>
+        <v>40638.18039953891</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>94507.73664017525</v>
+        <v>103619.4892808935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>185705.6508706468</v>
+        <v>201421.4193326758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43272.44507444735</v>
+        <v>47058.23293959109</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119309.7801522485</v>
+        <v>130618.0091773765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>205384.8373451838</v>
+        <v>222998.6821555227</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49501.02530005352</v>
+        <v>53865.8207465001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138248.2042706408</v>
+        <v>151005.7124748848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>225696.9342565985</v>
+        <v>245227.4253082465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>55189.78233679121</v>
+        <v>60053.84049278234</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146491.5416209743</v>
+        <v>159506.398775583</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>245872.9095182358</v>
+        <v>267268.7645807038</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59666.17493169236</v>
+        <v>64888.00929976414</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.726407131084097E-12</v>
+        <v>6.238756265323425E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04777190258389989</v>
+        <v>0.05867231454300213</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.008430335750625139</v>
+        <v>0.01035393786122298</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147433.6407805964</v>
+        <v>159935.5747037695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>265147.7473392775</v>
+        <v>288290.3421016617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63172.29458451394</v>
+        <v>68645.38566476437</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146544.1928164235</v>
+        <v>158391.5414029322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>282777.0662109315</v>
+        <v>307483.8959096455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66184.52330440751</v>
+        <v>71860.92413993644</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146449.1836400357</v>
+        <v>157797.4216630082</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>298060.1849953717</v>
+        <v>324089.8832383474</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68870.98769121338</v>
+        <v>74725.3791876243</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147221.1748986098</v>
+        <v>158245.4539749931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>310369.5819360453</v>
+        <v>337429.1713127057</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71129.01101666399</v>
+        <v>77129.15256874468</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143084.4051712081</v>
+        <v>153456.176336252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>319187.8653596253</v>
+        <v>346943.0563219739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72225.53759882628</v>
+        <v>78275.93149287307</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128936.9432839169</v>
+        <v>137895.4223330331</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>324150.8572330697</v>
+        <v>352240.0823295048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71529.41948444098</v>
+        <v>77481.72812129538</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>106293.7096773301</v>
+        <v>113218.4524450641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>325091.4363438854</v>
+        <v>353143.7819350272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69179.48918823215</v>
+        <v>74899.31897916226</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>79765.88863861933</v>
+        <v>84417.33465301455</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>322075.6409610831</v>
+        <v>349732.0082758422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65699.75433206387</v>
+        <v>71097.11707548359</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>58912.63403747652</v>
+        <v>61895.09971020911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>315421.2866504382</v>
+        <v>342357.1705786677</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62208.42822352244</v>
+        <v>67293.20457972276</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49174.05796255205</v>
+        <v>51588.15454606341</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305690.6452018761</v>
+        <v>331638.1090915586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59409.19219486301</v>
+        <v>64256.38936441281</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.181041469640044E-10</v>
+        <v>2.874598238289698E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1364230877625402</v>
+        <v>0.1614805655768319</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02407466257056443</v>
+        <v>0.02849657042785149</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45694.79562562396</v>
+        <v>48184.3900311102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>293653.014862749</v>
+        <v>318419.0457677599</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>56898.31978385512</v>
+        <v>61545.41742652544</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42332.49431927962</v>
+        <v>44917.13628694472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>280219.8455220241</v>
+        <v>303698.532518732</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>54154.1714543948</v>
+        <v>58584.65160054788</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>38013.14829443273</v>
+        <v>40520.22492737657</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>266362.405023387</v>
+        <v>288539.3333452712</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51228.81344207063</v>
+        <v>55420.95309861258</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34596.35524591468</v>
+        <v>36975.73396156973</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>253026.6463154352</v>
+        <v>273975.288472731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>48495.80058625687</v>
+        <v>52456.99520333609</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>33662.43498930217</v>
+        <v>36059.35668973061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>241059.5812818307</v>
+        <v>260930.8186026537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46280.19666292527</v>
+        <v>50053.21023527498</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35100.10873281607</v>
+        <v>37742.76782607118</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>231156.2830227164</v>
+        <v>250163.0531553262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44692.2973207269</v>
+        <v>48340.06201462103</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>38918.71724189883</v>
+        <v>42083.63305765679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>223829.5308266916</v>
+        <v>242228.7877993357</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43823.63088518271</v>
+        <v>47422.21589909954</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45854.0097860938</v>
+        <v>49874.75828114746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219398.7043685355</v>
+        <v>237472.5563649113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43812.3083942095</v>
+        <v>47448.56152047132</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57001.7185267844</v>
+        <v>62276.11143930603</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>217992.6791320367</v>
+        <v>236030.0674866129</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44802.82059817207</v>
+        <v>48571.93278827942</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>72698.9520100127</v>
+        <v>79606.14988643519</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219562.4428012529</v>
+        <v>237842.3084202581</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46823.97476996107</v>
+        <v>50817.29983932267</v>
       </c>
       <c r="F11">
         <v>0</v>
